--- a/Resources/Performance testing with JMETER (3).xlsx
+++ b/Resources/Performance testing with JMETER (3).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7650" activeTab="1"/>
+    <workbookView windowWidth="19890" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Load Testing" sheetId="1" r:id="rId1"/>
@@ -137,7 +137,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="35">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -196,14 +196,6 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -960,148 +952,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1137,18 +1129,18 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1416,8 +1408,8 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
@@ -1596,7 +1588,7 @@
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
       <c r="E12" s="31">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="F12" s="27"/>
     </row>
@@ -1639,8 +1631,8 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5714285714286" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
@@ -1762,7 +1754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" ht="12.75" spans="1:6">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
@@ -1781,7 +1773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" ht="12.75" spans="1:6">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1803,7 +1795,7 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="10">
-        <v>2.78</v>
+        <v>2.79</v>
       </c>
       <c r="F12" s="4"/>
     </row>
